--- a/weight_df_boy.xlsx
+++ b/weight_df_boy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,63 +577,6 @@
         <v>-0.6046598901744501</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>john123</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>65</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>19</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.2443</v>
-      </c>
-      <c r="F3" t="n">
-        <v>19.2132</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.13142</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13.186</v>
-      </c>
-      <c r="J3" t="n">
-        <v>14.892</v>
-      </c>
-      <c r="K3" t="n">
-        <v>16.882</v>
-      </c>
-      <c r="L3" t="n">
-        <v>19.213</v>
-      </c>
-      <c r="M3" t="n">
-        <v>21.959</v>
-      </c>
-      <c r="N3" t="n">
-        <v>25.21</v>
-      </c>
-      <c r="O3" t="n">
-        <v>29.083</v>
-      </c>
-      <c r="P3" t="n">
-        <v>32.956</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.08502348810296836</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/weight_df_boy.xlsx
+++ b/weight_df_boy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,6 +577,63 @@
         <v>-0.6046598901744501</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>john123</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>65</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.2443</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.2132</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.13142</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13.186</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14.892</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16.882</v>
+      </c>
+      <c r="L3" t="n">
+        <v>19.213</v>
+      </c>
+      <c r="M3" t="n">
+        <v>21.959</v>
+      </c>
+      <c r="N3" t="n">
+        <v>25.21</v>
+      </c>
+      <c r="O3" t="n">
+        <v>29.083</v>
+      </c>
+      <c r="P3" t="n">
+        <v>32.956</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.08502348810296836</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
